--- a/ExcelFilesDir/ExcelFiles/MerchTest/dhl/1862408_TEMPLATE IN AUDI 2403141116.xlsx
+++ b/ExcelFilesDir/ExcelFiles/MerchTest/dhl/1862408_TEMPLATE IN AUDI 2403141116.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpa0auto\Documents\RPA_Audi\Data\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anavi\Desktop\Projects\CursoCSharp\CursoC\ExcelFilesDir\ExcelFiles\MerchTest\dhl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7232356-8BA9-4659-B982-619D2C48D992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D08290-E626-49B3-AE76-711AA58C08D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="17280" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44160" yWindow="-10363" windowWidth="18240" windowHeight="10586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -57,20 +57,10 @@
     <definedName name="UM">#REF!</definedName>
     <definedName name="USCC">[1]Hoja4!$B$6:$B$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -356,7 +346,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CFDI"/>
@@ -2495,13 +2485,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AJ38"/>
+  <dimension ref="A1:AJ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -2569,6 +2559,11 @@
         <v>1862408</v>
       </c>
     </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="7" spans="1:36" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
@@ -2576,11 +2571,8 @@
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
@@ -2605,9 +2597,6 @@
       </c>
       <c r="L7" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>18</v>
@@ -2689,8 +2678,8 @@
       <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F8" s="3">
         <v>106</v>
@@ -2709,9 +2698,6 @@
       </c>
       <c r="L8" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="O8" s="3">
         <v>128</v>
@@ -2793,9 +2779,6 @@
       <c r="L9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O9" s="3">
         <v>128</v>
       </c>
@@ -2876,9 +2859,6 @@
       <c r="L10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O10" s="3">
         <v>128</v>
       </c>
@@ -2959,9 +2939,6 @@
       <c r="L11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O11" s="3">
         <v>128</v>
       </c>
@@ -3042,9 +3019,6 @@
       <c r="L12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O12" s="3">
         <v>128</v>
       </c>
@@ -3125,9 +3099,6 @@
       <c r="L13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O13" s="3">
         <v>128</v>
       </c>
@@ -3208,9 +3179,6 @@
       <c r="L14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O14" s="3">
         <v>128</v>
       </c>
@@ -3291,9 +3259,6 @@
       <c r="L15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O15" s="3">
         <v>128</v>
       </c>
@@ -3374,9 +3339,6 @@
       <c r="L16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O16" s="3">
         <v>128</v>
       </c>
@@ -3457,9 +3419,6 @@
       <c r="L17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O17" s="3">
         <v>128</v>
       </c>
@@ -3540,9 +3499,6 @@
       <c r="L18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O18" s="3">
         <v>128</v>
       </c>
@@ -3623,9 +3579,6 @@
       <c r="L19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O19" s="3">
         <v>128</v>
       </c>
@@ -3706,9 +3659,6 @@
       <c r="L20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O20" s="3">
         <v>128</v>
       </c>
@@ -3789,9 +3739,6 @@
       <c r="L21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O21" s="3">
         <v>128</v>
       </c>
@@ -3872,9 +3819,6 @@
       <c r="L22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O22" s="3">
         <v>128</v>
       </c>
@@ -3955,9 +3899,6 @@
       <c r="L23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O23" s="3">
         <v>128</v>
       </c>
@@ -4038,9 +3979,6 @@
       <c r="L24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O24" s="3">
         <v>128</v>
       </c>
@@ -4121,9 +4059,6 @@
       <c r="L25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O25" s="3">
         <v>128</v>
       </c>
@@ -4204,9 +4139,6 @@
       <c r="L26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O26" s="3">
         <v>128</v>
       </c>
@@ -4287,9 +4219,6 @@
       <c r="L27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O27" s="3">
         <v>128</v>
       </c>
@@ -4370,9 +4299,6 @@
       <c r="L28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O28" s="3">
         <v>128</v>
       </c>
@@ -4429,9 +4355,6 @@
       <c r="B29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D29" s="3" t="s">
         <v>43</v>
       </c>
@@ -4453,9 +4376,6 @@
       <c r="L29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O29" s="3">
         <v>128</v>
       </c>
@@ -4505,15 +4425,127 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="31" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:33" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
